--- a/tools/demo.xlsx
+++ b/tools/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20805" windowHeight="12585" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,48 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>百分比乘以系数完成当月最低销售额得1分,达到最高销售额及以上得6分,之间按比例增加</t>
+          <t>百分比乘以系数完成当月最低销售额得1分,达到最高销售额及以上得6分,之间按比例增加
+直接填写系数，基本是满分（1）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填写系数（0,1）发送月报有就满分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">直接填写原始数据，
+代码处理  不考核记做15 满分
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>直接记录原始数据 
+流失率超过3%就是0分
+ 不考核记做0 满分</t>
         </r>
       </text>
     </comment>
@@ -73,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>产品市场调查与研究 产品创新</t>
   </si>
@@ -124,6 +165,18 @@
   </si>
   <si>
     <t>产品月销售额</t>
+  </si>
+  <si>
+    <t>产品帮助文档</t>
+  </si>
+  <si>
+    <t>产品线工作安排与管理</t>
+  </si>
+  <si>
+    <t>产品使用率</t>
+  </si>
+  <si>
+    <t>已付费流失率</t>
   </si>
   <si>
     <t>ERP3.0</t>
@@ -140,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -161,16 +214,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,69 +238,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,45 +343,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,24 +378,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,19 +432,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,133 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +587,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -552,8 +644,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,21 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -598,39 +684,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -639,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +704,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,21 +1226,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="18.125" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="20.75" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1216,89 +1274,125 @@
       <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.7</v>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>8.73</v>
+      </c>
+      <c r="N3">
+        <v>2.06</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="F4" s="2">
         <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1307,10 +1401,22 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0.9</v>
+        <v>0.65</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tools/demo.xlsx
+++ b/tools/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="23325" windowHeight="14340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,6 +69,18 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只能保留两位小数,注意四舍五入</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L1" authorId="0">
       <text>
         <r>
@@ -193,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -214,6 +226,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -222,13 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -238,6 +273,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -245,91 +295,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,8 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,7 +356,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,19 +390,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,163 +522,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +603,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,16 +668,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,50 +696,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -692,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,18 +1241,20 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="15"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="18.125" customWidth="1"/>
     <col min="9" max="9" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="12.125" customWidth="1"/>
     <col min="14" max="14" width="16.625" customWidth="1"/>
   </cols>
@@ -1287,12 +1301,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1307,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -1331,12 +1345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1348,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1360,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1369,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.73</v>
+        <v>12.17</v>
       </c>
       <c r="N3">
-        <v>2.06</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1380,7 +1394,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -1389,25 +1403,25 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0.65</v>
+        <v>0.82</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
